--- a/data/Combined_Data_1900_1953.xlsx
+++ b/data/Combined_Data_1900_1953.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_data\Uni\2nd_Semester\Data_Mining\LAB\R_Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLDM\semester 2\DataMining Project\datamining-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC40DBC-75AF-4C04-B022-01C97E214C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ABF235-D9CC-495B-A7ED-20CE6277FAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Data" sheetId="1" r:id="rId1"/>
@@ -4342,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="AC43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AF58" sqref="AF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
